--- a/data/case1/20/Qlm2_13.xlsx
+++ b/data/case1/20/Qlm2_13.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.064748798824744824</v>
+        <v>-0.14727665526569922</v>
       </c>
       <c r="B1" s="0">
-        <v>0.064697295543929556</v>
+        <v>0.14719735498711373</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.052571576711522461</v>
+        <v>-0.14299875742206147</v>
       </c>
       <c r="B2" s="0">
-        <v>0.052511866234060456</v>
+        <v>0.14267334027570922</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.050666367629279563</v>
+        <v>-0.092969991031120358</v>
       </c>
       <c r="B3" s="0">
-        <v>0.050480953761612213</v>
+        <v>0.09278380273845066</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.04248095379139194</v>
+        <v>-0.084783802786516205</v>
       </c>
       <c r="B4" s="0">
-        <v>0.042116900508279542</v>
+        <v>0.084219385823146808</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.03911690052221406</v>
+        <v>-0.081219385849396808</v>
       </c>
       <c r="B5" s="0">
-        <v>0.03788767923606251</v>
+        <v>0.079287361564201575</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0012449137857935</v>
+        <v>-0.011787657986337408</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0010564087572575431</v>
+        <v>0.011454134889097745</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0089435912028719144</v>
+        <v>-0.0014541349564480832</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.0089806506840282019</v>
+        <v>0.0013788646266279514</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.01898065064451826</v>
+        <v>0.0086211353059200135</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.019037121049053862</v>
+        <v>-0.0087456370230611924</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.021037121037591699</v>
+        <v>0.010745636995562524</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.021082709240145547</v>
+        <v>-0.010844598989396825</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.023082709229930387</v>
+        <v>0.012844598962812981</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.023085258629521377</v>
+        <v>-0.012850835331752464</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.026085258616128648</v>
+        <v>0.01585083530030218</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.026091435772701566</v>
+        <v>-0.015861217118358972</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.016511526574103819</v>
+        <v>0.018453317699624439</v>
       </c>
       <c r="B12" s="0">
-        <v>0.016353950240711068</v>
+        <v>-0.018537380147710447</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.012853950256835667</v>
+        <v>-0.0049335803672807543</v>
       </c>
       <c r="B13" s="0">
-        <v>0.012783932785128904</v>
+        <v>0.0049236937944305836</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0047839328168519657</v>
+        <v>0.0030763061521286161</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0047626663635460531</v>
+        <v>-0.0030764923911306141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0037626663718812736</v>
+        <v>0.0040764923721141599</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0037501045734007477</v>
+        <v>-0.0040774764540643105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.006033421128280203</v>
+        <v>-0.0060337914763781697</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060034710454690554</v>
+        <v>0.0060034258686889608</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040034710578584765</v>
+        <v>-0.004003425893126078</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999807394104</v>
+        <v>0.0039999999655497831</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.006125718852832307</v>
+        <v>0.0018014024046948407</v>
       </c>
       <c r="B18" s="0">
-        <v>0.0060692905135866226</v>
+        <v>-0.0018273818045813073</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091645238822668</v>
+        <v>0.0058273817841012487</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016912482951447</v>
+        <v>-0.00600221109710386</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080169124978528572</v>
+        <v>0.010002211077022594</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056673314476967</v>
+        <v>-0.010043212489843967</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.004005667346530295</v>
+        <v>-0.0040056685496399069</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999847939449</v>
+        <v>0.0039999999799729125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0021545013799446622</v>
+        <v>-0.045703349270414861</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.0025280656572927995</v>
+        <v>0.045492627277642583</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.0075280656386462752</v>
+        <v>-0.040492627310005247</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.0082824400863898973</v>
+        <v>0.040097761112404484</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.028282440017526334</v>
+        <v>-0.02009776122144924</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.02865502580660273</v>
+        <v>0.019999999889500408</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.03464276546316114</v>
+        <v>-0.065499703605706117</v>
       </c>
       <c r="B25" s="0">
-        <v>0.034587772733225108</v>
+        <v>0.065414800926090422</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.032087772748138121</v>
+        <v>-0.062914800957326378</v>
       </c>
       <c r="B26" s="0">
-        <v>0.032020672749911938</v>
+        <v>0.062807878159018671</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.029520672765295686</v>
+        <v>-0.060307878191612652</v>
       </c>
       <c r="B27" s="0">
-        <v>0.029146796330327351</v>
+        <v>0.05969025777887893</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.027146796346184665</v>
+        <v>-0.0576902578146683</v>
       </c>
       <c r="B28" s="0">
-        <v>0.026909895645408355</v>
+        <v>0.057281094548022438</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081345942500490764</v>
+        <v>-0.050281094612701693</v>
       </c>
       <c r="B29" s="0">
-        <v>0.08116611331108281</v>
+        <v>0.050172036716638502</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021166113526070784</v>
+        <v>0.0098279629565634075</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021023226639256709</v>
+        <v>-0.0099435565435914697</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014023226677311484</v>
+        <v>-0.014023139520130457</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001446559735342</v>
+        <v>0.014001305860722013</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040014466081359501</v>
+        <v>-0.0040013059417862706</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999717128532</v>
+        <v>0.0039999999482684956</v>
       </c>
     </row>
   </sheetData>
